--- a/state_results/Rivers/RetarukeatWhanganuiConfluence_b5224c7c55.xlsx
+++ b/state_results/Rivers/RetarukeatWhanganuiConfluence_b5224c7c55.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,6 +771,237 @@
       </c>
       <c r="U4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Retaruke at Whanganui Confluence</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4304</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>0.4015</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.51905</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1779627.51</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5669030.88</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Whai_4d</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Retaruke at Whanganui Confluence</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>111.2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>108.582</v>
+      </c>
+      <c r="H6" t="n">
+        <v>113</v>
+      </c>
+      <c r="I6" t="n">
+        <v>113</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>107.265</v>
+      </c>
+      <c r="M6" t="n">
+        <v>112.783</v>
+      </c>
+      <c r="N6" t="n">
+        <v>113</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1779627.51</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5669030.88</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Whai_4d</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Retaruke at Whanganui Confluence</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.165</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6.418</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.418</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6.13065</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.418</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1779627.51</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5669030.88</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Middle Whanganui</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Whai_4d</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/RetarukeatWhanganuiConfluence_b5224c7c55.xlsx
+++ b/state_results/Rivers/RetarukeatWhanganuiConfluence_b5224c7c55.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="35">
   <si>
     <t>site name</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -473,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,7 +561,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>0.41</v>
@@ -588,16 +591,16 @@
         <v>5669030.88</v>
       </c>
       <c r="Q2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -614,7 +617,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>111.2</v>
@@ -644,16 +647,16 @@
         <v>5669030.88</v>
       </c>
       <c r="Q3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -670,7 +673,7 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -700,16 +703,16 @@
         <v>5669030.88</v>
       </c>
       <c r="Q4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -726,7 +729,7 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>0.41</v>
@@ -741,7 +744,7 @@
         <v>0.532</v>
       </c>
       <c r="L5">
-        <v>0.4015</v>
+        <v>0.41</v>
       </c>
       <c r="M5">
         <v>0.51905</v>
@@ -756,16 +759,16 @@
         <v>5669030.88</v>
       </c>
       <c r="Q5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -776,13 +779,13 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6">
         <v>111.2</v>
@@ -797,7 +800,7 @@
         <v>113</v>
       </c>
       <c r="L6">
-        <v>107.265</v>
+        <v>111.2</v>
       </c>
       <c r="M6">
         <v>112.783</v>
@@ -812,16 +815,16 @@
         <v>5669030.88</v>
       </c>
       <c r="Q6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -838,7 +841,7 @@
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -853,7 +856,7 @@
         <v>6.418</v>
       </c>
       <c r="L7">
-        <v>4.99</v>
+        <v>5</v>
       </c>
       <c r="M7">
         <v>6.13065</v>
@@ -868,16 +871,184 @@
         <v>5669030.88</v>
       </c>
       <c r="Q7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="R7" t="s">
+      <c r="F8">
+        <v>0.41</v>
+      </c>
+      <c r="G8">
+        <v>0.4468</v>
+      </c>
+      <c r="H8">
+        <v>0.577</v>
+      </c>
+      <c r="I8">
+        <v>0.577</v>
+      </c>
+      <c r="L8">
+        <v>0.41</v>
+      </c>
+      <c r="M8">
+        <v>0.56125</v>
+      </c>
+      <c r="N8">
+        <v>0.577</v>
+      </c>
+      <c r="O8">
+        <v>1779627.51</v>
+      </c>
+      <c r="P8">
+        <v>5669030.88</v>
+      </c>
+      <c r="Q8" t="s">
         <v>31</v>
       </c>
-      <c r="S7" t="s">
+      <c r="R8" t="s">
         <v>32</v>
       </c>
-      <c r="T7" t="s">
+      <c r="S8" t="s">
         <v>33</v>
+      </c>
+      <c r="T8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>112</v>
+      </c>
+      <c r="G9">
+        <v>108.742</v>
+      </c>
+      <c r="H9">
+        <v>113</v>
+      </c>
+      <c r="I9">
+        <v>113</v>
+      </c>
+      <c r="L9">
+        <v>112</v>
+      </c>
+      <c r="M9">
+        <v>112.783</v>
+      </c>
+      <c r="N9">
+        <v>113</v>
+      </c>
+      <c r="O9">
+        <v>1779627.51</v>
+      </c>
+      <c r="P9">
+        <v>5669030.88</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>5.597</v>
+      </c>
+      <c r="G10">
+        <v>5.6088</v>
+      </c>
+      <c r="H10">
+        <v>7.219</v>
+      </c>
+      <c r="I10">
+        <v>7.219</v>
+      </c>
+      <c r="L10">
+        <v>5.597</v>
+      </c>
+      <c r="M10">
+        <v>6.93865</v>
+      </c>
+      <c r="N10">
+        <v>7.219</v>
+      </c>
+      <c r="O10">
+        <v>1779627.51</v>
+      </c>
+      <c r="P10">
+        <v>5669030.88</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" t="s">
+        <v>33</v>
+      </c>
+      <c r="T10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
